--- a/Main/SASdata/moments.xlsx
+++ b/Main/SASdata/moments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F28D11F-9AE6-41B0-A797-2454E9C38C4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B63B8C-541A-411A-968D-9ADD682859AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -111,7 +111,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -431,7 +430,7 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +471,10 @@
       <c r="B2" s="3">
         <v>8.4105010503586403E-2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>33687</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -492,10 +491,10 @@
       <c r="B3" s="3">
         <v>0.1116033565494871</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>32661</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -512,10 +511,10 @@
       <c r="B4" s="3">
         <v>0.40361531507170723</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>30193</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -532,10 +531,10 @@
       <c r="B5" s="3">
         <v>0.30556807811121539</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>26267</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -552,10 +551,10 @@
       <c r="B6" s="3">
         <v>0.37003378673050269</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>22219</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -572,10 +571,10 @@
       <c r="B7" s="3">
         <v>0.33740329670274982</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>18221</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -592,10 +591,10 @@
       <c r="B8" s="3">
         <v>0.22975209107424879</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>14487</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -612,10 +611,10 @@
       <c r="B9" s="3">
         <v>0.2833739350318541</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>10891</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -632,10 +631,10 @@
       <c r="B10" s="3">
         <v>0.24198622612098741</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>7509</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -652,10 +651,10 @@
       <c r="B11" s="3">
         <v>0.1677470346371796</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>4348</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -672,10 +671,10 @@
       <c r="B12" s="3">
         <v>0.1595628185063229</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1377</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -692,10 +691,10 @@
       <c r="B13" s="3">
         <v>6.576792648884007E-2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>31996</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -713,10 +712,10 @@
       <c r="B14" s="3">
         <v>0.103847703265239</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>31000</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -734,10 +733,10 @@
       <c r="B15" s="3">
         <v>0.45733350390358979</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>28896</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -755,10 +754,10 @@
       <c r="B16" s="3">
         <v>0.34843297918157529</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>25870</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -776,10 +775,10 @@
       <c r="B17" s="3">
         <v>0.3485149379888014</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>22597</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -797,10 +796,10 @@
       <c r="B18" s="3">
         <v>0.32003293826828749</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>19173</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -818,10 +817,10 @@
       <c r="B19" s="3">
         <v>0.20627803504158229</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>15651</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -839,10 +838,10 @@
       <c r="B20" s="3">
         <v>0.26366741668141092</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>12119</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -860,10 +859,10 @@
       <c r="B21" s="3">
         <v>0.19918998672820029</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>8577</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -881,10 +880,10 @@
       <c r="B22" s="3">
         <v>0.13272979842268889</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>5017</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -902,10 +901,10 @@
       <c r="B23" s="3">
         <v>0.12976314949609849</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>1576</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -926,7 +925,7 @@
       <c r="C24" s="2">
         <v>8176</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="J24" s="3"/>
@@ -944,7 +943,7 @@
       <c r="C25" s="2">
         <v>8115</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="J25" s="3"/>
@@ -962,7 +961,7 @@
       <c r="C26" s="2">
         <v>7901</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="J26" s="3"/>
@@ -980,7 +979,7 @@
       <c r="C27" s="2">
         <v>7398</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="J27" s="3"/>
@@ -998,7 +997,7 @@
       <c r="C28" s="2">
         <v>6586</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="J28" s="3"/>
@@ -1016,7 +1015,7 @@
       <c r="C29" s="2">
         <v>5590</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="J29" s="3"/>
@@ -1034,7 +1033,7 @@
       <c r="C30" s="2">
         <v>4448</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="J30" s="3"/>
@@ -1052,7 +1051,7 @@
       <c r="C31" s="2">
         <v>3269</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="J31" s="3"/>
@@ -1070,7 +1069,7 @@
       <c r="C32" s="2">
         <v>2193</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="J32" s="3"/>
@@ -1078,7 +1077,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2.8691983122362871E-2</v>
       </c>
@@ -1088,8 +1087,9 @@
       <c r="C33" s="2">
         <v>1185</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2.180685358255452E-2</v>
       </c>
@@ -1099,8 +1099,9 @@
       <c r="C34" s="2">
         <v>321</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>3.682789098944267E-3</v>
       </c>
@@ -1110,8 +1111,9 @@
       <c r="C35" s="2">
         <v>8146</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1.139742319127849E-2</v>
       </c>
@@ -1121,8 +1123,9 @@
       <c r="C36" s="2">
         <v>8072</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>0.3542872172540768</v>
       </c>
@@ -1132,8 +1135,9 @@
       <c r="C37" s="2">
         <v>7604</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>0.1582527206771463</v>
       </c>
@@ -1143,8 +1147,9 @@
       <c r="C38" s="2">
         <v>6616</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>0.1376420189979512</v>
       </c>
@@ -1154,8 +1159,9 @@
       <c r="C39" s="2">
         <v>5369</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>0.1143617021276596</v>
       </c>
@@ -1165,8 +1171,9 @@
       <c r="C40" s="2">
         <v>4136</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>4.4506258692628649E-2</v>
       </c>
@@ -1176,8 +1183,9 @@
       <c r="C41" s="2">
         <v>2876</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>5.4318305268875607E-2</v>
       </c>
@@ -1187,8 +1195,9 @@
       <c r="C42" s="2">
         <v>1841</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2.460629921259843E-2</v>
       </c>
@@ -1198,8 +1207,9 @@
       <c r="C43" s="2">
         <v>1016</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1.785714285714286E-2</v>
       </c>
@@ -1209,8 +1219,9 @@
       <c r="C44" s="2">
         <v>448</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>5.1546391752577317E-2</v>
       </c>
@@ -1220,8 +1231,9 @@
       <c r="C45" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1.707358716066246E-3</v>
       </c>
@@ -1231,8 +1243,9 @@
       <c r="C46" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2.2195663308861189E-3</v>
       </c>
@@ -1242,8 +1255,9 @@
       <c r="C47" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>7.3416424790848558E-3</v>
       </c>
@@ -1253,6 +1267,7 @@
       <c r="C48" s="2">
         <v>43</v>
       </c>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -1264,6 +1279,7 @@
       <c r="C49" s="2">
         <v>117</v>
       </c>
+      <c r="D49" s="8"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -1279,6 +1295,7 @@
       <c r="C50" s="2">
         <v>234</v>
       </c>
+      <c r="D50" s="8"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1294,6 +1311,7 @@
       <c r="C51" s="2">
         <v>425</v>
       </c>
+      <c r="D51" s="8"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -1309,6 +1327,7 @@
       <c r="C52" s="2">
         <v>775</v>
       </c>
+      <c r="D52" s="8"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -1324,6 +1343,7 @@
       <c r="C53" s="2">
         <v>1419</v>
       </c>
+      <c r="D53" s="8"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -1339,6 +1359,7 @@
       <c r="C54" s="2">
         <v>1085</v>
       </c>
+      <c r="D54" s="8"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -1354,6 +1375,7 @@
       <c r="C55" s="2">
         <v>807</v>
       </c>
+      <c r="D55" s="8"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -1369,6 +1391,7 @@
       <c r="C56" s="2">
         <v>542</v>
       </c>
+      <c r="D56" s="8"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -1384,6 +1407,7 @@
       <c r="C57" s="2">
         <v>271</v>
       </c>
+      <c r="D57" s="8"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -1399,6 +1423,7 @@
       <c r="C58" s="2">
         <v>67</v>
       </c>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -1410,6 +1435,7 @@
       <c r="C59" s="2">
         <v>42</v>
       </c>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -1421,6 +1447,7 @@
       <c r="C60" s="2">
         <v>7</v>
       </c>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
